--- a/biology/Botanique/Fibre_végétale/Fibre_végétale.xlsx
+++ b/biology/Botanique/Fibre_végétale/Fibre_végétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fibre_v%C3%A9g%C3%A9tale</t>
+          <t>Fibre_végétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fibre végétale est une expansion cellulaire filiforme et morte, principalement composée de cellulose, d'hémicelluloses, de lignines, et de pectines. Elle est isolée ou compose avec d'autres un faisceau.
-Les fibres végétales peuvent permettre aux industriels des matériaux de réduire leur dépendance vis-à-vis du pétrole, grâce à leurs propriétés mécaniques, leur faible densité, leur résistance thermique, leur absorption phonique, leurs propriétés de surface, et leur biodégradabilité[1].
+Les fibres végétales peuvent permettre aux industriels des matériaux de réduire leur dépendance vis-à-vis du pétrole, grâce à leurs propriétés mécaniques, leur faible densité, leur résistance thermique, leur absorption phonique, leurs propriétés de surface, et leur biodégradabilité.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fibre_v%C3%A9g%C3%A9tale</t>
+          <t>Fibre_végétale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XIXe siècle, les plantes à fibres (lin et chanvre) étaient largement cultivées car leurs fibres alimentaient l'industrie textile, l'industrie papetière, et la marine à voile. Les évolutions techniques (métier à tisser, machine à vapeur, techniques de récolte et de transformation du coton) ont fait chuter la demande en fibres végétales, entraînant une réduction importante des surfaces cultivées. En France, en 1862, les cultures de plantes à fibres occupaient 205 000 ha. Elles sont passées à 40 000 ha en 1911, et sont remontées à 65 400 ha en 1990-2008[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, les plantes à fibres (lin et chanvre) étaient largement cultivées car leurs fibres alimentaient l'industrie textile, l'industrie papetière, et la marine à voile. Les évolutions techniques (métier à tisser, machine à vapeur, techniques de récolte et de transformation du coton) ont fait chuter la demande en fibres végétales, entraînant une réduction importante des surfaces cultivées. En France, en 1862, les cultures de plantes à fibres occupaient 205 000 ha. Elles sont passées à 40 000 ha en 1911, et sont remontées à 65 400 ha en 1990-2008.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fibre_v%C3%A9g%C3%A9tale</t>
+          <t>Fibre_végétale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Plantes à fibres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fibres des parois des tiges
 Chanvre (fibre douce et solide, graines comestibles) ;
